--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,111 +40,129 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -154,9 +172,6 @@
     <t>buying</t>
   </si>
   <si>
-    <t>due</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
@@ -166,9 +181,18 @@
     <t>supermarket</t>
   </si>
   <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
@@ -181,55 +205,88 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -238,55 +295,52 @@
     <t>relief</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>increase</t>
@@ -295,55 +349,46 @@
     <t>helping</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>article</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>need</t>
+    <t>buy</t>
   </si>
   <si>
     <t>amp</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>food</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -701,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9130434782608695</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -820,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -862,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8253424657534246</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1012,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1020,49 +1065,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>0.8375</v>
+      </c>
+      <c r="L8">
+        <v>134</v>
+      </c>
+      <c r="M8">
+        <v>134</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>26</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L8">
-        <v>49</v>
-      </c>
-      <c r="M8">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7567567567567568</v>
+        <v>0.797945205479452</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.8303571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7254901960784313</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.81875</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L10">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="M10">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,13 +1265,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1238,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.8018867924528302</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1312,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6271186440677966</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -1488,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6104651162790697</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C18">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.625</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.746031746031746</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5343915343915344</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1688,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1720,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5302013422818792</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.6652719665271967</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L22">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1762,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4909090909090909</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1812,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1865,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4871794871794872</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.725</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4666666666666667</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.6441176470588236</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L25">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4594594594594595</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1938,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.6307692307692307</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,13 +2015,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4545454545454545</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>0.6296296296296297</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,7 +2065,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4516129032258064</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2038,31 +2083,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K28">
-        <v>0.6258503401360545</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L28">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2115,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4516129032258064</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2112,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,13 +2165,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4444444444444444</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2138,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K30">
-        <v>0.5842696629213483</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2162,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2215,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>0.574468085106383</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L31">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2212,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2265,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4102564102564102</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K32">
-        <v>0.5686274509803921</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2262,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2270,13 +2315,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.40625</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2291,16 +2336,16 @@
         <v>19</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2312,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2320,38 +2365,38 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3875</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>19</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34">
+        <v>0.62</v>
+      </c>
+      <c r="L34">
         <v>31</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>31</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>49</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L34">
-        <v>13</v>
-      </c>
-      <c r="M34">
-        <v>13</v>
-      </c>
       <c r="N34">
         <v>1</v>
       </c>
@@ -2362,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2370,13 +2415,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3555555555555556</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2388,31 +2433,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>0.5121951219512195</v>
+        <v>0.6143344709897611</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2420,13 +2465,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3246753246753247</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2438,19 +2483,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2462,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2470,13 +2515,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2936507936507937</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C37">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2488,19 +2533,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>0.4857142857142857</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2512,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2520,13 +2565,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2117962466487936</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C38">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2538,19 +2583,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K38">
-        <v>0.4814814814814815</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2562,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2570,13 +2615,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1433333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2588,19 +2633,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>0.4657534246575342</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2612,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2620,37 +2665,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07903780068728522</v>
+        <v>0.35</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>52</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L40">
         <v>25</v>
       </c>
-      <c r="E40">
-        <v>0.08</v>
-      </c>
-      <c r="F40">
-        <v>0.92</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>268</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="L40">
-        <v>14</v>
-      </c>
       <c r="M40">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2662,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2670,13 +2715,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.06779661016949153</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2688,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K41">
-        <v>0.3974358974358974</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2712,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2720,37 +2765,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.03716508210890233</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D42">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E42">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1114</v>
+        <v>173</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K42">
-        <v>0.3050847457627119</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2762,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2770,37 +2815,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03337653920933247</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C43">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2983</v>
+        <v>37</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K43">
-        <v>0.2982456140350877</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2812,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2820,37 +2865,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02552204176334107</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E44">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>840</v>
+        <v>286</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K44">
-        <v>0.2954545454545455</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2862,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2870,37 +2915,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.02167766258246937</v>
+        <v>0.14</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D45">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E45">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2076</v>
+        <v>258</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K45">
-        <v>0.25</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2912,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2920,465 +2965,891 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.008325328210054436</v>
+        <v>0.08191126279863481</v>
       </c>
       <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>269</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="L46">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03975799481417459</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>0.08</v>
+      </c>
+      <c r="F47">
+        <v>0.92</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1111</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.03762568926370419</v>
+      </c>
+      <c r="C48">
+        <v>116</v>
+      </c>
+      <c r="D48">
+        <v>140</v>
+      </c>
+      <c r="E48">
+        <v>0.17</v>
+      </c>
+      <c r="F48">
+        <v>0.83</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2967</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48">
+        <v>0.3934426229508197</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.02784222737819025</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>0.17</v>
+      </c>
+      <c r="F49">
+        <v>0.83</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>838</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49">
+        <v>0.390625</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
+        <v>25</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.02772643253234751</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>0.21</v>
+      </c>
+      <c r="F50">
+        <v>0.79</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>526</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.02497643732327992</v>
+      </c>
+      <c r="C51">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>74</v>
+      </c>
+      <c r="E51">
+        <v>0.28</v>
+      </c>
+      <c r="F51">
+        <v>0.72</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2069</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L51">
         <v>26</v>
       </c>
-      <c r="D46">
-        <v>104</v>
-      </c>
-      <c r="E46">
-        <v>0.75</v>
-      </c>
-      <c r="F46">
-        <v>0.25</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>3097</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46">
-        <v>0.25</v>
-      </c>
-      <c r="L46">
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.02047244094488189</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>0.54</v>
+      </c>
+      <c r="F52">
+        <v>0.46</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>622</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L52">
         <v>16</v>
       </c>
-      <c r="M46">
+      <c r="M52">
         <v>16</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K47">
-        <v>0.2336448598130841</v>
-      </c>
-      <c r="L47">
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.01361256544502618</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>0.5</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>942</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53">
+        <v>0.1981132075471698</v>
+      </c>
+      <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>0.88</v>
+      </c>
+      <c r="O53">
+        <v>0.12</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.01027287319422151</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>118</v>
+      </c>
+      <c r="E54">
+        <v>0.73</v>
+      </c>
+      <c r="F54">
+        <v>0.27</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3083</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K54">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
         <v>25</v>
       </c>
-      <c r="M47">
-        <v>27</v>
-      </c>
-      <c r="N47">
+      <c r="N54">
+        <v>0.96</v>
+      </c>
+      <c r="O54">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56">
+        <v>0.1592920353982301</v>
+      </c>
+      <c r="L56">
+        <v>18</v>
+      </c>
+      <c r="M56">
+        <v>18</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57">
+        <v>0.1135135135135135</v>
+      </c>
+      <c r="L57">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>21</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58">
+        <v>0.1045751633986928</v>
+      </c>
+      <c r="L58">
+        <v>32</v>
+      </c>
+      <c r="M58">
+        <v>34</v>
+      </c>
+      <c r="N58">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O58">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K59">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>15</v>
+      </c>
+      <c r="N60">
         <v>0.93</v>
       </c>
-      <c r="O47">
+      <c r="O60">
         <v>0.06999999999999995</v>
       </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K48">
-        <v>0.2131147540983606</v>
-      </c>
-      <c r="L48">
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K61">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L61">
+        <v>24</v>
+      </c>
+      <c r="M61">
+        <v>25</v>
+      </c>
+      <c r="N61">
+        <v>0.96</v>
+      </c>
+      <c r="O61">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K62">
+        <v>0.08173076923076923</v>
+      </c>
+      <c r="L62">
+        <v>34</v>
+      </c>
+      <c r="M62">
+        <v>34</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K63">
+        <v>0.08139534883720931</v>
+      </c>
+      <c r="L63">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>14</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64">
+        <v>0.04011461318051576</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>14</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K65">
+        <v>0.02713789839065952</v>
+      </c>
+      <c r="L65">
+        <v>86</v>
+      </c>
+      <c r="M65">
+        <v>118</v>
+      </c>
+      <c r="N65">
+        <v>0.73</v>
+      </c>
+      <c r="O65">
+        <v>0.27</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K66">
+        <v>0.0244988864142539</v>
+      </c>
+      <c r="L66">
+        <v>22</v>
+      </c>
+      <c r="M66">
+        <v>25</v>
+      </c>
+      <c r="N66">
+        <v>0.88</v>
+      </c>
+      <c r="O66">
+        <v>0.12</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67">
+        <v>0.02354788069073784</v>
+      </c>
+      <c r="L67">
+        <v>15</v>
+      </c>
+      <c r="M67">
+        <v>28</v>
+      </c>
+      <c r="N67">
+        <v>0.54</v>
+      </c>
+      <c r="O67">
+        <v>0.46</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K68">
+        <v>0.02354260089686099</v>
+      </c>
+      <c r="L68">
+        <v>21</v>
+      </c>
+      <c r="M68">
+        <v>23</v>
+      </c>
+      <c r="N68">
+        <v>0.91</v>
+      </c>
+      <c r="O68">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K69">
+        <v>0.01361256544502618</v>
+      </c>
+      <c r="L69">
         <v>13</v>
       </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49">
-        <v>0.1188811188811189</v>
-      </c>
-      <c r="L49">
-        <v>17</v>
-      </c>
-      <c r="M49">
-        <v>17</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="L50">
+      <c r="M69">
+        <v>26</v>
+      </c>
+      <c r="N69">
+        <v>0.5</v>
+      </c>
+      <c r="O69">
+        <v>0.5</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K70">
+        <v>0.01004784688995215</v>
+      </c>
+      <c r="L70">
         <v>21</v>
       </c>
-      <c r="M50">
-        <v>21</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K51">
-        <v>0.1048387096774194</v>
-      </c>
-      <c r="L51">
-        <v>13</v>
-      </c>
-      <c r="M51">
-        <v>13</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K52">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="L52">
-        <v>28</v>
-      </c>
-      <c r="M52">
-        <v>28</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53">
-        <v>0.07710843373493977</v>
-      </c>
-      <c r="L53">
-        <v>32</v>
-      </c>
-      <c r="M53">
-        <v>33</v>
-      </c>
-      <c r="N53">
-        <v>0.97</v>
-      </c>
-      <c r="O53">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K54">
-        <v>0.06920415224913495</v>
-      </c>
-      <c r="L54">
-        <v>20</v>
-      </c>
-      <c r="M54">
-        <v>20</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K55">
-        <v>0.05202312138728324</v>
-      </c>
-      <c r="L55">
-        <v>18</v>
-      </c>
-      <c r="M55">
-        <v>21</v>
-      </c>
-      <c r="N55">
-        <v>0.86</v>
-      </c>
-      <c r="O55">
-        <v>0.14</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K56">
-        <v>0.0405616224648986</v>
-      </c>
-      <c r="L56">
-        <v>26</v>
-      </c>
-      <c r="M56">
-        <v>35</v>
-      </c>
-      <c r="N56">
-        <v>0.74</v>
-      </c>
-      <c r="O56">
-        <v>0.26</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K57">
-        <v>0.03125</v>
-      </c>
-      <c r="L57">
-        <v>13</v>
-      </c>
-      <c r="M57">
-        <v>15</v>
-      </c>
-      <c r="N57">
-        <v>0.87</v>
-      </c>
-      <c r="O57">
-        <v>0.13</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K58">
-        <v>0.03</v>
-      </c>
-      <c r="L58">
-        <v>27</v>
-      </c>
-      <c r="M58">
-        <v>28</v>
-      </c>
-      <c r="N58">
-        <v>0.96</v>
-      </c>
-      <c r="O58">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59">
-        <v>0.02456692913385827</v>
-      </c>
-      <c r="L59">
-        <v>78</v>
-      </c>
-      <c r="M59">
-        <v>104</v>
-      </c>
-      <c r="N59">
-        <v>0.75</v>
-      </c>
-      <c r="O59">
-        <v>0.25</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K60">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="L60">
-        <v>16</v>
-      </c>
-      <c r="M60">
+      <c r="M70">
+        <v>74</v>
+      </c>
+      <c r="N70">
+        <v>0.28</v>
+      </c>
+      <c r="O70">
+        <v>0.72</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K71">
+        <v>0.00802407221664995</v>
+      </c>
+      <c r="L71">
         <v>24</v>
       </c>
-      <c r="N60">
-        <v>0.67</v>
-      </c>
-      <c r="O60">
-        <v>0.33</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61">
-        <v>0.01001430615164521</v>
-      </c>
-      <c r="L61">
-        <v>21</v>
-      </c>
-      <c r="M61">
-        <v>67</v>
-      </c>
-      <c r="N61">
-        <v>0.31</v>
-      </c>
-      <c r="O61">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>0.006990679094540613</v>
-      </c>
-      <c r="L62">
-        <v>21</v>
-      </c>
-      <c r="M62">
-        <v>124</v>
-      </c>
-      <c r="N62">
+      <c r="M71">
+        <v>140</v>
+      </c>
+      <c r="N71">
         <v>0.17</v>
       </c>
-      <c r="O62">
+      <c r="O71">
         <v>0.83</v>
       </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>2983</v>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2967</v>
       </c>
     </row>
   </sheetData>
